--- a/results/mp/logistic/corona/confidence/84/0.2/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,24 +46,36 @@
     <t>forced</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
@@ -76,96 +88,96 @@
     <t>love</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>hope</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
@@ -178,7 +190,7 @@
     <t>you</t>
   </si>
   <si>
-    <t>.</t>
+    <t>and</t>
   </si>
   <si>
     <t>to</t>
@@ -547,10 +559,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -608,13 +620,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7431506849315068</v>
+        <v>0.75</v>
       </c>
       <c r="C3">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D3">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -626,19 +638,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -650,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -679,16 +691,16 @@
         <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K4">
-        <v>0.9166666666666666</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L4">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -700,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -708,13 +720,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6052631578947368</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -726,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K5">
         <v>0.9152542372881356</v>
@@ -758,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5588235294117647</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -776,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="M6">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -800,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -808,13 +820,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.455026455026455</v>
+        <v>0.4391534391534391</v>
       </c>
       <c r="C7">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D7">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -826,19 +838,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K7">
-        <v>0.8846153846153846</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -850,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -858,13 +870,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3624031007751938</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C8">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -876,19 +888,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>329</v>
+        <v>30</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K8">
-        <v>0.8571428571428571</v>
+        <v>0.8198433420365535</v>
       </c>
       <c r="L8">
-        <v>96</v>
+        <v>314</v>
       </c>
       <c r="M8">
-        <v>96</v>
+        <v>314</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -900,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -908,13 +920,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2214765100671141</v>
+        <v>0.3662790697674418</v>
       </c>
       <c r="C9">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="D9">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -926,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>116</v>
+        <v>327</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K9">
-        <v>0.8407310704960835</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L9">
-        <v>322</v>
+        <v>84</v>
       </c>
       <c r="M9">
-        <v>322</v>
+        <v>84</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -950,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>61</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -958,13 +970,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1527777777777778</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="C10">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -976,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>305</v>
+        <v>53</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K10">
-        <v>0.8207547169811321</v>
+        <v>0.7890625</v>
       </c>
       <c r="L10">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="M10">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1000,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1008,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.007414571244358479</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D11">
         <v>28</v>
       </c>
       <c r="E11">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8200000000000001</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>3079</v>
+        <v>121</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K11">
-        <v>0.8098591549295775</v>
+        <v>0.7875</v>
       </c>
       <c r="L11">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="M11">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1050,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1058,115 +1070,187 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.00505738183232834</v>
+        <v>0.1416666666666667</v>
       </c>
       <c r="C12">
+        <v>51</v>
+      </c>
+      <c r="D12">
+        <v>51</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>309</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12">
+        <v>0.7804878048780488</v>
+      </c>
+      <c r="L12">
+        <v>64</v>
+      </c>
+      <c r="M12">
+        <v>64</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="C13">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>228</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13">
+        <v>0.7758620689655172</v>
+      </c>
+      <c r="L13">
+        <v>45</v>
+      </c>
+      <c r="M13">
+        <v>45</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0.008421052631578947</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>24</v>
+      </c>
+      <c r="E14">
+        <v>0.17</v>
+      </c>
+      <c r="F14">
+        <v>0.83</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>2355</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="L14">
+        <v>30</v>
+      </c>
+      <c r="M14">
+        <v>30</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.006449532408900355</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
         <v>26</v>
       </c>
-      <c r="D12">
-        <v>50</v>
-      </c>
-      <c r="E12">
-        <v>0.48</v>
-      </c>
-      <c r="F12">
-        <v>0.52</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>5115</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12">
-        <v>0.7948717948717948</v>
-      </c>
-      <c r="L12">
-        <v>31</v>
-      </c>
-      <c r="M12">
-        <v>31</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="J13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13">
-        <v>0.7926829268292683</v>
-      </c>
-      <c r="L13">
-        <v>65</v>
-      </c>
-      <c r="M13">
-        <v>65</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="J14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14">
-        <v>0.7875</v>
-      </c>
-      <c r="L14">
-        <v>126</v>
-      </c>
-      <c r="M14">
-        <v>126</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="E15">
+        <v>0.23</v>
+      </c>
+      <c r="F15">
+        <v>0.77</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>3081</v>
+      </c>
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1178,21 +1262,45 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0.003888024883359254</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>41</v>
+      </c>
+      <c r="E16">
+        <v>0.51</v>
+      </c>
+      <c r="F16">
+        <v>0.49</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>5124</v>
+      </c>
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K16">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1204,21 +1312,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K17">
-        <v>0.7659574468085106</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1230,21 +1338,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K18">
-        <v>0.765625</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="L18">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M18">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1256,21 +1364,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K19">
-        <v>0.7586206896551724</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L19">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="M19">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1282,21 +1390,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K20">
-        <v>0.75</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L20">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1308,15 +1416,15 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K21">
-        <v>0.6571428571428571</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L21">
         <v>23</v>
@@ -1334,21 +1442,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K22">
-        <v>0.64</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="M22">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1360,21 +1468,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K23">
-        <v>0.6363636363636364</v>
+        <v>0.65</v>
       </c>
       <c r="L23">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1386,21 +1494,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K24">
-        <v>0.6323529411764706</v>
+        <v>0.64</v>
       </c>
       <c r="L24">
-        <v>215</v>
+        <v>32</v>
       </c>
       <c r="M24">
-        <v>215</v>
+        <v>32</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1412,21 +1520,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>125</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K25">
-        <v>0.6031746031746031</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L25">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="M25">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1438,21 +1546,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>25</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K26">
-        <v>0.6</v>
+        <v>0.5830508474576271</v>
       </c>
       <c r="L26">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="M26">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1464,21 +1572,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>16</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>0.5941422594142259</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L27">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="M27">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1490,21 +1598,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>97</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K28">
-        <v>0.5846153846153846</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L28">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M28">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1516,21 +1624,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K29">
-        <v>0.5813953488372093</v>
+        <v>0.5690376569037657</v>
       </c>
       <c r="L29">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="M29">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1542,21 +1650,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>18</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K30">
-        <v>0.576271186440678</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L30">
-        <v>170</v>
+        <v>53</v>
       </c>
       <c r="M30">
-        <v>170</v>
+        <v>53</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1568,21 +1676,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>125</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K31">
-        <v>0.5428571428571428</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L31">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M31">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1594,21 +1702,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K32">
-        <v>0.5393258426966292</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L32">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="M32">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1620,21 +1728,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K33">
-        <v>0.5319148936170213</v>
+        <v>0.4714285714285714</v>
       </c>
       <c r="L33">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="M33">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1646,21 +1754,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K34">
-        <v>0.3725490196078431</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M34">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1672,21 +1780,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K35">
-        <v>0.358974358974359</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="L35">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M35">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1698,21 +1806,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K36">
-        <v>0.3424657534246575</v>
+        <v>0.273972602739726</v>
       </c>
       <c r="L36">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M36">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1724,111 +1832,111 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K37">
-        <v>0.02005012531328321</v>
+        <v>0.01918265221017515</v>
       </c>
       <c r="L37">
+        <v>23</v>
+      </c>
+      <c r="M37">
         <v>24</v>
       </c>
-      <c r="M37">
-        <v>27</v>
-      </c>
       <c r="N37">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="O37">
-        <v>0.11</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>1173</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K38">
-        <v>0.005421686746987952</v>
+        <v>0.008623922009748781</v>
       </c>
       <c r="L38">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M38">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="N38">
-        <v>0.63</v>
+        <v>0.79</v>
       </c>
       <c r="O38">
-        <v>0.37</v>
+        <v>0.21</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>4953</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="K39">
-        <v>0.004670169293636894</v>
+        <v>0.005103224309904894</v>
       </c>
       <c r="L39">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M39">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="N39">
-        <v>0.48</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O39">
-        <v>0.52</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>5115</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="K40">
-        <v>0.004407330085826954</v>
+        <v>0.004081632653061225</v>
       </c>
       <c r="L40">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M40">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N40">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="O40">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>4292</v>
+        <v>5124</v>
       </c>
     </row>
   </sheetData>
